--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45855</v>
+        <v>45874</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>

--- a/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
+++ b/data/OUTPUT/OUTPUT_REPORTS/LABOUR_COMMISSION_09_06_2025_APPLICATION_FOR_THE_RECOVERY_report.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45874</v>
+        <v>45897</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -1355,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6096,6 +6096,1511 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>debtor_entity_inn</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>05. ИНН/КИО</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>debtor_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>06. КПП</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>774301001</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>debtor_entity_name</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>95.7</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>debtor_entity_type</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>01. Тип должника</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>document_authority</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>07. Орган, выдавший документ</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Центральный районный суд г. Тольятти</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>document_case_date</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>06. Дата дела</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>document_case_number</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>05. Номер дела</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>76.7</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>document_date</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>03. Дата документа</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>21 апреля 2025</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>document_marks</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>10. Отметки на 7-ой стр.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>document_number</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02. Номер документа</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>ФС № 033803038</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>document_process</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>09. Процесс</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>document_type</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>01. Тип документа</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_address</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>05. Адрес</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>445040,
+САМАРСКАЯ ОБЛАСТЬ,
+Г ТОЛЬЯТТИ,
+УЛ СВЕРДЛОВА,
+Д. 7Д,
+КВ. 66</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_bik</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>07. БИК</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>96.5</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_inn</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>03. ИНН</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>90.2</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>04. КПП</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>632101001</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>02. Наименование получателя</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>94.6</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_phone</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>06. Телефон</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_transfer_account</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>08. Расчетный счет</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>4011111111111111111114</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>recovery_document_power_of_attorney</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>02. Наличие доверенности</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>APPLICATION_FOR_THE_RECOVERY</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>recovery_document_signature_of_the_applicant</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>03. Подпись заявителя</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
